--- a/TB_nation.xlsx
+++ b/TB_nation.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -43,7 +43,7 @@
     <t>全    国</t>
   </si>
   <si>
-    <t>2004</t>
+    <t>2005</t>
   </si>
   <si>
     <t>01</t>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>2005</t>
   </si>
   <si>
     <t>2006</t>
@@ -128,11 +125,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,18 +156,17 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -468,13 +460,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -504,22 +496,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="n">
-        <v>37987</v>
+        <v>38353</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>99466</v>
+        <v>114194</v>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="E2" t="n">
-        <v>7.651937101886328</v>
+        <v>8.784965624281192</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00515432193741</v>
+        <v>0.011001016553166</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -530,22 +522,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="n">
-        <v>38018</v>
+        <v>38384</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>84156</v>
+        <v>87112</v>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="E3" t="n">
-        <v>6.474136074099148</v>
+        <v>6.701542335520107</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00523125211558</v>
+        <v>0.015462967322981</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -556,22 +548,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="n">
-        <v>38047</v>
+        <v>38412</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>94360</v>
+        <v>130134</v>
       </c>
       <c r="D4" t="n">
-        <v>111</v>
+        <v>281</v>
       </c>
       <c r="E4" t="n">
-        <v>7.259131612148814</v>
+        <v>10.01123278412358</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008539249776902</v>
+        <v>0.021617382177899</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -582,22 +574,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="n">
-        <v>38078</v>
+        <v>38443</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>91944</v>
+        <v>133924</v>
       </c>
       <c r="D5" t="n">
-        <v>121</v>
+        <v>374</v>
       </c>
       <c r="E5" t="n">
-        <v>7.073268301689387</v>
+        <v>10.30279818787532</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009308551558605001</v>
+        <v>0.028771889446741</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -608,22 +600,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="n">
-        <v>38108</v>
+        <v>38473</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>90379</v>
+        <v>121326</v>
       </c>
       <c r="D6" t="n">
-        <v>151</v>
+        <v>388</v>
       </c>
       <c r="E6" t="n">
-        <v>6.952872572852879</v>
+        <v>9.333631708597123</v>
       </c>
       <c r="F6" t="n">
-        <v>0.011616456903714</v>
+        <v>0.029848912046352</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -634,22 +626,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="n">
-        <v>38139</v>
+        <v>38504</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>87661</v>
+        <v>120665</v>
       </c>
       <c r="D7" t="n">
-        <v>140</v>
+        <v>351</v>
       </c>
       <c r="E7" t="n">
-        <v>6.743776348586023</v>
+        <v>9.282780855858363</v>
       </c>
       <c r="F7" t="n">
-        <v>0.010770224943841</v>
+        <v>0.027002495175952</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -660,22 +652,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="n">
-        <v>38169</v>
+        <v>38534</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>85117</v>
+        <v>104853</v>
       </c>
       <c r="D8" t="n">
-        <v>148</v>
+        <v>389</v>
       </c>
       <c r="E8" t="n">
-        <v>6.548065975320799</v>
+        <v>8.066360759783839</v>
       </c>
       <c r="F8" t="n">
-        <v>0.011385666369203</v>
+        <v>0.029925842232038</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -686,22 +678,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="n">
-        <v>38200</v>
+        <v>38565</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>85860</v>
+        <v>106976</v>
       </c>
       <c r="D9" t="n">
-        <v>130</v>
+        <v>355</v>
       </c>
       <c r="E9" t="n">
-        <v>6.605225097701326</v>
+        <v>8.229683543996224</v>
       </c>
       <c r="F9" t="n">
-        <v>0.010000923162138</v>
+        <v>0.027310215918698</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -712,22 +704,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="n">
-        <v>38231</v>
+        <v>38596</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>76686</v>
+        <v>95741</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="E10" t="n">
-        <v>5.899467643167062</v>
+        <v>7.365372907808689</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007693017817029</v>
+        <v>0.02115580106378</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -738,22 +730,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="n">
-        <v>38261</v>
+        <v>38626</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>75824</v>
+        <v>89801</v>
       </c>
       <c r="D11" t="n">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="E11" t="n">
-        <v>5.833153829584269</v>
+        <v>6.908407604831035</v>
       </c>
       <c r="F11" t="n">
-        <v>0.012693479398098</v>
+        <v>0.021694312363586</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -764,22 +756,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="n">
-        <v>38292</v>
+        <v>38657</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>61569</v>
+        <v>89376</v>
       </c>
       <c r="D12" t="n">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="E12" t="n">
-        <v>4.736514139766748</v>
+        <v>6.875712275914284</v>
       </c>
       <c r="F12" t="n">
-        <v>0.009847062805797</v>
+        <v>0.017386221965143</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -790,22 +782,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="n">
-        <v>38322</v>
+        <v>38687</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>37257</v>
+        <v>65207</v>
       </c>
       <c r="D13" t="n">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="E13" t="n">
-        <v>2.866187648090593</v>
+        <v>5.016386618057898</v>
       </c>
       <c r="F13" t="n">
-        <v>0.008154598886051001</v>
+        <v>0.010539435439047</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -816,22 +808,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="n">
-        <v>38353</v>
+        <v>38718</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>114194</v>
+        <v>121435</v>
       </c>
       <c r="D14" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E14" t="n">
-        <v>8.784965624281192</v>
+        <v>9.287146162197645</v>
       </c>
       <c r="F14" t="n">
-        <v>0.011001016553166</v>
+        <v>0.010783444714208</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
@@ -842,22 +834,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="n">
-        <v>38384</v>
+        <v>38749</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>87112</v>
+        <v>105269</v>
       </c>
       <c r="D15" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E15" t="n">
-        <v>6.701542335520107</v>
+        <v>8.050797458297723</v>
       </c>
       <c r="F15" t="n">
-        <v>0.015462967322981</v>
+        <v>0.016060449574353</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
@@ -868,22 +860,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="n">
-        <v>38412</v>
+        <v>38777</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>130134</v>
+        <v>117577</v>
       </c>
       <c r="D16" t="n">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="E16" t="n">
-        <v>10.01123278412358</v>
+        <v>8.992092760017398</v>
       </c>
       <c r="F16" t="n">
-        <v>0.021617382177899</v>
+        <v>0.023172934385852</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
@@ -894,22 +886,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="n">
-        <v>38443</v>
+        <v>38808</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>133924</v>
+        <v>112030</v>
       </c>
       <c r="D17" t="n">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E17" t="n">
-        <v>10.30279818787532</v>
+        <v>8.56786745626057</v>
       </c>
       <c r="F17" t="n">
-        <v>0.028771889446741</v>
+        <v>0.027455720939012</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
@@ -920,22 +912,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="n">
-        <v>38473</v>
+        <v>38838</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>121326</v>
+        <v>109183</v>
       </c>
       <c r="D18" t="n">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="E18" t="n">
-        <v>9.333631708597123</v>
+        <v>8.350133647031132</v>
       </c>
       <c r="F18" t="n">
-        <v>0.029848912046352</v>
+        <v>0.028296982583383</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -946,22 +938,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="n">
-        <v>38504</v>
+        <v>38869</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>120665</v>
+        <v>101060</v>
       </c>
       <c r="D19" t="n">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="E19" t="n">
-        <v>9.282780855858363</v>
+        <v>7.728900161828914</v>
       </c>
       <c r="F19" t="n">
-        <v>0.027002495175952</v>
+        <v>0.024014196030222</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
@@ -972,22 +964,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="n">
-        <v>38534</v>
+        <v>38899</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>104853</v>
+        <v>96226</v>
       </c>
       <c r="D20" t="n">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="E20" t="n">
-        <v>8.066360759783839</v>
+        <v>7.359203908293579</v>
       </c>
       <c r="F20" t="n">
-        <v>0.029925842232038</v>
+        <v>0.026155589306803</v>
       </c>
       <c r="G20" t="s">
         <v>22</v>
@@ -998,22 +990,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="n">
-        <v>38565</v>
+        <v>38930</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>106976</v>
+        <v>94376</v>
       </c>
       <c r="D21" t="n">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E21" t="n">
-        <v>8.229683543996224</v>
+        <v>7.217718995376663</v>
       </c>
       <c r="F21" t="n">
-        <v>0.027310215918698</v>
+        <v>0.027685155932932</v>
       </c>
       <c r="G21" t="s">
         <v>22</v>
@@ -1024,22 +1016,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="n">
-        <v>38596</v>
+        <v>38961</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>95741</v>
+        <v>83011</v>
       </c>
       <c r="D22" t="n">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E22" t="n">
-        <v>7.365372907808689</v>
+        <v>6.348542760078963</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02115580106378</v>
+        <v>0.021796324422336</v>
       </c>
       <c r="G22" t="s">
         <v>22</v>
@@ -1050,22 +1042,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="n">
-        <v>38626</v>
+        <v>38991</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>89801</v>
+        <v>80923</v>
       </c>
       <c r="D23" t="n">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E23" t="n">
-        <v>6.908407604831035</v>
+        <v>6.188856004311114</v>
       </c>
       <c r="F23" t="n">
-        <v>0.021694312363586</v>
+        <v>0.020343236127513</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
@@ -1076,22 +1068,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="n">
-        <v>38657</v>
+        <v>39022</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>89376</v>
+        <v>64082</v>
       </c>
       <c r="D24" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E24" t="n">
-        <v>6.875712275914284</v>
+        <v>4.900884426779344</v>
       </c>
       <c r="F24" t="n">
-        <v>0.017386221965143</v>
+        <v>0.017437059537869</v>
       </c>
       <c r="G24" t="s">
         <v>22</v>
@@ -1102,22 +1094,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="n">
-        <v>38687</v>
+        <v>39052</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>65207</v>
+        <v>42399</v>
       </c>
       <c r="D25" t="n">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E25" t="n">
-        <v>5.016386618057898</v>
+        <v>3.242604769061786</v>
       </c>
       <c r="F25" t="n">
-        <v>0.010539435439047</v>
+        <v>0.012160054677724</v>
       </c>
       <c r="G25" t="s">
         <v>22</v>
@@ -1128,22 +1120,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="n">
-        <v>38718</v>
+        <v>39083</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>121435</v>
+        <v>130737</v>
       </c>
       <c r="D26" t="n">
-        <v>141</v>
+        <v>336</v>
       </c>
       <c r="E26" t="n">
-        <v>9.287146162197645</v>
+        <v>9.945937408994181</v>
       </c>
       <c r="F26" t="n">
-        <v>0.010783444714208</v>
+        <v>0.025561508749796</v>
       </c>
       <c r="G26" t="s">
         <v>23</v>
@@ -1154,22 +1146,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="n">
-        <v>38749</v>
+        <v>39114</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>105269</v>
+        <v>99274</v>
       </c>
       <c r="D27" t="n">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="E27" t="n">
-        <v>8.050797458297723</v>
+        <v>7.552360772700065</v>
       </c>
       <c r="F27" t="n">
-        <v>0.016060449574353</v>
+        <v>0.022290244237173</v>
       </c>
       <c r="G27" t="s">
         <v>23</v>
@@ -1180,22 +1172,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="n">
-        <v>38777</v>
+        <v>39142</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>117577</v>
+        <v>114528</v>
       </c>
       <c r="D28" t="n">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="E28" t="n">
-        <v>8.992092760017398</v>
+        <v>8.712822839573231</v>
       </c>
       <c r="F28" t="n">
-        <v>0.023172934385852</v>
+        <v>0.028224165911233</v>
       </c>
       <c r="G28" t="s">
         <v>23</v>
@@ -1206,22 +1198,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="n">
-        <v>38808</v>
+        <v>39173</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>112030</v>
+        <v>113947</v>
       </c>
       <c r="D29" t="n">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E29" t="n">
-        <v>8.56786745626057</v>
+        <v>8.668622730693377</v>
       </c>
       <c r="F29" t="n">
-        <v>0.027455720939012</v>
+        <v>0.026550495695472</v>
       </c>
       <c r="G29" t="s">
         <v>23</v>
@@ -1232,22 +1224,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="n">
-        <v>38838</v>
+        <v>39203</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>109183</v>
+        <v>112374</v>
       </c>
       <c r="D30" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="E30" t="n">
-        <v>8.350133647031132</v>
+        <v>8.548955310266505</v>
       </c>
       <c r="F30" t="n">
-        <v>0.028296982583383</v>
+        <v>0.029897836126993</v>
       </c>
       <c r="G30" t="s">
         <v>23</v>
@@ -1258,22 +1250,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="n">
-        <v>38869</v>
+        <v>39234</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>101060</v>
+        <v>106731</v>
       </c>
       <c r="D31" t="n">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="E31" t="n">
-        <v>7.728900161828914</v>
+        <v>8.119658899923955</v>
       </c>
       <c r="F31" t="n">
-        <v>0.024014196030222</v>
+        <v>0.028984925100215</v>
       </c>
       <c r="G31" t="s">
         <v>23</v>
@@ -1284,22 +1276,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="n">
-        <v>38899</v>
+        <v>39264</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>96226</v>
+        <v>99868</v>
       </c>
       <c r="D32" t="n">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="E32" t="n">
-        <v>7.359203908293579</v>
+        <v>7.597549868525597</v>
       </c>
       <c r="F32" t="n">
-        <v>0.026155589306803</v>
+        <v>0.028072014073436</v>
       </c>
       <c r="G32" t="s">
         <v>23</v>
@@ -1310,22 +1302,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="n">
-        <v>38930</v>
+        <v>39295</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>94376</v>
+        <v>98060</v>
       </c>
       <c r="D33" t="n">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="E33" t="n">
-        <v>7.217718995376663</v>
+        <v>7.460004607157648</v>
       </c>
       <c r="F33" t="n">
-        <v>0.027685155932932</v>
+        <v>0.021377333210395</v>
       </c>
       <c r="G33" t="s">
         <v>23</v>
@@ -1336,22 +1328,22 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="n">
-        <v>38961</v>
+        <v>39326</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>83011</v>
+        <v>87507</v>
       </c>
       <c r="D34" t="n">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E34" t="n">
-        <v>6.348542760078963</v>
+        <v>6.657175435024927</v>
       </c>
       <c r="F34" t="n">
-        <v>0.021796324422336</v>
+        <v>0.021073029534802</v>
       </c>
       <c r="G34" t="s">
         <v>23</v>
@@ -1362,22 +1354,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="n">
-        <v>38991</v>
+        <v>39356</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="n">
-        <v>80923</v>
+        <v>84592</v>
       </c>
       <c r="D35" t="n">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="E35" t="n">
-        <v>6.188856004311114</v>
+        <v>6.435414131436669</v>
       </c>
       <c r="F35" t="n">
-        <v>0.020343236127513</v>
+        <v>0.018638600130059</v>
       </c>
       <c r="G35" t="s">
         <v>23</v>
@@ -1388,22 +1380,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="n">
-        <v>39022</v>
+        <v>39387</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>64082</v>
+        <v>70936</v>
       </c>
       <c r="D36" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E36" t="n">
-        <v>4.900884426779344</v>
+        <v>5.396521382962828</v>
       </c>
       <c r="F36" t="n">
-        <v>0.017437059537869</v>
+        <v>0.017497461346586</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -1414,22 +1406,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="n">
-        <v>39052</v>
+        <v>39417</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>42399</v>
+        <v>45405</v>
       </c>
       <c r="D37" t="n">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E37" t="n">
-        <v>3.242604769061786</v>
+        <v>3.454227097572843</v>
       </c>
       <c r="F37" t="n">
-        <v>0.012160054677724</v>
+        <v>0.010954932321341</v>
       </c>
       <c r="G37" t="s">
         <v>23</v>
@@ -1440,22 +1432,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="n">
-        <v>39083</v>
+        <v>39448</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>130737</v>
+        <v>124625</v>
       </c>
       <c r="D38" t="n">
-        <v>336</v>
+        <v>103</v>
       </c>
       <c r="E38" t="n">
-        <v>9.945937408994181</v>
+        <v>9.432070173845258</v>
       </c>
       <c r="F38" t="n">
-        <v>0.025561508749796</v>
+        <v>0.007795412059427</v>
       </c>
       <c r="G38" t="s">
         <v>24</v>
@@ -1466,22 +1458,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="n">
-        <v>39114</v>
+        <v>39479</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>99274</v>
+        <v>110646</v>
       </c>
       <c r="D39" t="n">
-        <v>293</v>
+        <v>177</v>
       </c>
       <c r="E39" t="n">
-        <v>7.552360772700065</v>
+        <v>8.374088958517811</v>
       </c>
       <c r="F39" t="n">
-        <v>0.022290244237173</v>
+        <v>0.013395999364258</v>
       </c>
       <c r="G39" t="s">
         <v>24</v>
@@ -1492,22 +1484,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="n">
-        <v>39142</v>
+        <v>39508</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>114528</v>
+        <v>121262</v>
       </c>
       <c r="D40" t="n">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="E40" t="n">
-        <v>8.712822839573231</v>
+        <v>9.177546185924362</v>
       </c>
       <c r="F40" t="n">
-        <v>0.028224165911233</v>
+        <v>0.019450688342453</v>
       </c>
       <c r="G40" t="s">
         <v>24</v>
@@ -1518,22 +1510,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="n">
-        <v>39173</v>
+        <v>39539</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>113947</v>
+        <v>115262</v>
       </c>
       <c r="D41" t="n">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="E41" t="n">
-        <v>8.668622730693377</v>
+        <v>8.723444512559695</v>
       </c>
       <c r="F41" t="n">
-        <v>0.026550495695472</v>
+        <v>0.022175298382641</v>
       </c>
       <c r="G41" t="s">
         <v>24</v>
@@ -1544,22 +1536,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="n">
-        <v>39203</v>
+        <v>39569</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>112374</v>
+        <v>110833</v>
       </c>
       <c r="D42" t="n">
-        <v>393</v>
+        <v>299</v>
       </c>
       <c r="E42" t="n">
-        <v>8.548955310266505</v>
+        <v>8.388241794004344</v>
       </c>
       <c r="F42" t="n">
-        <v>0.029897836126993</v>
+        <v>0.022629400056006</v>
       </c>
       <c r="G42" t="s">
         <v>24</v>
@@ -1570,22 +1562,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="n">
-        <v>39234</v>
+        <v>39600</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>106731</v>
+        <v>101944</v>
       </c>
       <c r="D43" t="n">
-        <v>381</v>
+        <v>271</v>
       </c>
       <c r="E43" t="n">
-        <v>8.119658899923955</v>
+        <v>7.715490164914591</v>
       </c>
       <c r="F43" t="n">
-        <v>0.028984925100215</v>
+        <v>0.020510258913637</v>
       </c>
       <c r="G43" t="s">
         <v>24</v>
@@ -1596,22 +1588,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="n">
-        <v>39264</v>
+        <v>39630</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>99868</v>
+        <v>98888</v>
       </c>
       <c r="D44" t="n">
-        <v>369</v>
+        <v>285</v>
       </c>
       <c r="E44" t="n">
-        <v>7.597549868525597</v>
+        <v>7.484201045947521</v>
       </c>
       <c r="F44" t="n">
-        <v>0.028072014073436</v>
+        <v>0.021569829484822</v>
       </c>
       <c r="G44" t="s">
         <v>24</v>
@@ -1622,22 +1614,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="n">
-        <v>39295</v>
+        <v>39661</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>98060</v>
+        <v>95354</v>
       </c>
       <c r="D45" t="n">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="E45" t="n">
-        <v>7.460004607157648</v>
+        <v>7.216735160335733</v>
       </c>
       <c r="F45" t="n">
-        <v>0.021377333210395</v>
+        <v>0.022175298382641</v>
       </c>
       <c r="G45" t="s">
         <v>24</v>
@@ -1648,22 +1640,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="n">
-        <v>39326</v>
+        <v>39692</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>87507</v>
+        <v>87816</v>
       </c>
       <c r="D46" t="n">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="E46" t="n">
-        <v>6.657175435024927</v>
+        <v>6.646232091365257</v>
       </c>
       <c r="F46" t="n">
-        <v>0.021073029534802</v>
+        <v>0.018618168607951</v>
       </c>
       <c r="G46" t="s">
         <v>24</v>
@@ -1674,22 +1666,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="n">
-        <v>39356</v>
+        <v>39722</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>84592</v>
+        <v>86684</v>
       </c>
       <c r="D47" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E47" t="n">
-        <v>6.435414131436669</v>
+        <v>6.56055824232379</v>
       </c>
       <c r="F47" t="n">
-        <v>0.018638600130059</v>
+        <v>0.018088383322359</v>
       </c>
       <c r="G47" t="s">
         <v>24</v>
@@ -1700,22 +1692,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="n">
-        <v>39387</v>
+        <v>39753</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>70936</v>
+        <v>69552</v>
       </c>
       <c r="D48" t="n">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="E48" t="n">
-        <v>5.396521382962828</v>
+        <v>5.263946597643212</v>
       </c>
       <c r="F48" t="n">
-        <v>0.017497461346586</v>
+        <v>0.015590824118854</v>
       </c>
       <c r="G48" t="s">
         <v>24</v>
@@ -1726,22 +1718,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="n">
-        <v>39417</v>
+        <v>39783</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>45405</v>
+        <v>46674</v>
       </c>
       <c r="D49" t="n">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E49" t="n">
-        <v>3.454227097572843</v>
+        <v>3.53245691710374</v>
       </c>
       <c r="F49" t="n">
-        <v>0.010954932321341</v>
+        <v>0.01006592042625</v>
       </c>
       <c r="G49" t="s">
         <v>24</v>
@@ -1752,22 +1744,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="n">
-        <v>39448</v>
+        <v>39814</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" t="n">
-        <v>124625</v>
+        <v>102650</v>
       </c>
       <c r="D50" t="n">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="E50" t="n">
-        <v>9.432070173845258</v>
+        <v>7.729552271599488</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007795412059427</v>
+        <v>0.023870122455889</v>
       </c>
       <c r="G50" t="s">
         <v>25</v>
@@ -1778,22 +1770,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="n">
-        <v>39479</v>
+        <v>39845</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>110646</v>
+        <v>91906</v>
       </c>
       <c r="D51" t="n">
-        <v>177</v>
+        <v>372</v>
       </c>
       <c r="E51" t="n">
-        <v>8.374088958517811</v>
+        <v>6.92052831050777</v>
       </c>
       <c r="F51" t="n">
-        <v>0.013395999364258</v>
+        <v>0.028011626352022</v>
       </c>
       <c r="G51" t="s">
         <v>25</v>
@@ -1804,22 +1796,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="n">
-        <v>39508</v>
+        <v>39873</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="n">
-        <v>121262</v>
+        <v>107850</v>
       </c>
       <c r="D52" t="n">
-        <v>257</v>
+        <v>433</v>
       </c>
       <c r="E52" t="n">
-        <v>9.177546185924362</v>
+        <v>8.12111263996108</v>
       </c>
       <c r="F52" t="n">
-        <v>0.019450688342453</v>
+        <v>0.032604930673186</v>
       </c>
       <c r="G52" t="s">
         <v>25</v>
@@ -1830,22 +1822,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="n">
-        <v>39539</v>
+        <v>39904</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>115262</v>
+        <v>105789</v>
       </c>
       <c r="D53" t="n">
-        <v>293</v>
+        <v>360</v>
       </c>
       <c r="E53" t="n">
-        <v>8.723444512559695</v>
+        <v>7.965919193962379</v>
       </c>
       <c r="F53" t="n">
-        <v>0.022175298382641</v>
+        <v>0.027108025501956</v>
       </c>
       <c r="G53" t="s">
         <v>25</v>
@@ -1856,22 +1848,22 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="n">
-        <v>39569</v>
+        <v>39934</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>110833</v>
+        <v>97690</v>
       </c>
       <c r="D54" t="n">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="E54" t="n">
-        <v>8.388241794004344</v>
+        <v>7.356063920239201</v>
       </c>
       <c r="F54" t="n">
-        <v>0.022629400056006</v>
+        <v>0.02868932698957</v>
       </c>
       <c r="G54" t="s">
         <v>25</v>
@@ -1882,22 +1874,22 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="n">
-        <v>39600</v>
+        <v>39965</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="n">
-        <v>101944</v>
+        <v>93371</v>
       </c>
       <c r="D55" t="n">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="E55" t="n">
-        <v>7.715490164914591</v>
+        <v>7.030842914286564</v>
       </c>
       <c r="F55" t="n">
-        <v>0.020510258913637</v>
+        <v>0.025903224368536</v>
       </c>
       <c r="G55" t="s">
         <v>25</v>
@@ -1908,22 +1900,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="n">
-        <v>39630</v>
+        <v>39995</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56" t="n">
-        <v>98888</v>
+        <v>90387</v>
       </c>
       <c r="D56" t="n">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="E56" t="n">
-        <v>7.484201045947521</v>
+        <v>6.806147502903682</v>
       </c>
       <c r="F56" t="n">
-        <v>0.021569829484822</v>
+        <v>0.024849023376793</v>
       </c>
       <c r="G56" t="s">
         <v>25</v>
@@ -1934,22 +1926,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="n">
-        <v>39661</v>
+        <v>40026</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>95354</v>
+        <v>88336</v>
       </c>
       <c r="D57" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E57" t="n">
-        <v>7.216735160335733</v>
+        <v>6.65170705761337</v>
       </c>
       <c r="F57" t="n">
-        <v>0.022175298382641</v>
+        <v>0.022138220826598</v>
       </c>
       <c r="G57" t="s">
         <v>25</v>
@@ -1960,22 +1952,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="n">
-        <v>39692</v>
+        <v>40057</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" t="n">
-        <v>87816</v>
+        <v>80041</v>
       </c>
       <c r="D58" t="n">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E58" t="n">
-        <v>6.646232091365257</v>
+        <v>6.027092970005793</v>
       </c>
       <c r="F58" t="n">
-        <v>0.018618168607951</v>
+        <v>0.01957801841808</v>
       </c>
       <c r="G58" t="s">
         <v>25</v>
@@ -1986,22 +1978,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="n">
-        <v>39722</v>
+        <v>40087</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>86684</v>
+        <v>79474</v>
       </c>
       <c r="D59" t="n">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E59" t="n">
-        <v>6.56055824232379</v>
+        <v>5.984397829840212</v>
       </c>
       <c r="F59" t="n">
-        <v>0.018088383322359</v>
+        <v>0.019050917922208</v>
       </c>
       <c r="G59" t="s">
         <v>25</v>
@@ -2012,22 +2004,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="n">
-        <v>39753</v>
+        <v>40118</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" t="n">
-        <v>69552</v>
+        <v>71576</v>
       </c>
       <c r="D60" t="n">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="E60" t="n">
-        <v>5.263946597643212</v>
+        <v>5.389677870355626</v>
       </c>
       <c r="F60" t="n">
-        <v>0.015590824118854</v>
+        <v>0.017846116788788</v>
       </c>
       <c r="G60" t="s">
         <v>25</v>
@@ -2038,22 +2030,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="n">
-        <v>39783</v>
+        <v>40148</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" t="n">
-        <v>46674</v>
+        <v>67868</v>
       </c>
       <c r="D61" t="n">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="E61" t="n">
-        <v>3.53245691710374</v>
+        <v>5.110465207685476</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01006592042625</v>
+        <v>0.015210614309431</v>
       </c>
       <c r="G61" t="s">
         <v>25</v>
@@ -2064,22 +2056,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="n">
-        <v>39814</v>
+        <v>40179</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>102650</v>
+        <v>96017</v>
       </c>
       <c r="D62" t="n">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="E62" t="n">
-        <v>7.729552271599488</v>
+        <v>7.193685645458249</v>
       </c>
       <c r="F62" t="n">
-        <v>0.023870122455889</v>
+        <v>0.019704212011993</v>
       </c>
       <c r="G62" t="s">
         <v>26</v>
@@ -2090,22 +2082,22 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="n">
-        <v>39845</v>
+        <v>40210</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" t="n">
-        <v>91906</v>
+        <v>81927</v>
       </c>
       <c r="D63" t="n">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="E63" t="n">
-        <v>6.92052831050777</v>
+        <v>6.13804934413133</v>
       </c>
       <c r="F63" t="n">
-        <v>0.028011626352022</v>
+        <v>0.017231820390716</v>
       </c>
       <c r="G63" t="s">
         <v>26</v>
@@ -2116,22 +2108,22 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="n">
-        <v>39873</v>
+        <v>40238</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" t="n">
-        <v>107850</v>
+        <v>96888</v>
       </c>
       <c r="D64" t="n">
-        <v>433</v>
+        <v>282</v>
       </c>
       <c r="E64" t="n">
-        <v>8.12111263996108</v>
+        <v>7.258941800068309</v>
       </c>
       <c r="F64" t="n">
-        <v>0.032604930673186</v>
+        <v>0.021127710218182</v>
       </c>
       <c r="G64" t="s">
         <v>26</v>
@@ -2142,22 +2134,22 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="n">
-        <v>39904</v>
+        <v>40269</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>105789</v>
+        <v>94483</v>
       </c>
       <c r="D65" t="n">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="E65" t="n">
-        <v>7.965919193962379</v>
+        <v>7.078756895547994</v>
       </c>
       <c r="F65" t="n">
-        <v>0.027108025501956</v>
+        <v>0.022850892257254</v>
       </c>
       <c r="G65" t="s">
         <v>26</v>
@@ -2168,22 +2160,22 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="n">
-        <v>39934</v>
+        <v>40299</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="n">
-        <v>97690</v>
+        <v>92660</v>
       </c>
       <c r="D66" t="n">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="E66" t="n">
-        <v>7.356063920239201</v>
+        <v>6.942175988712013</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02868932698957</v>
+        <v>0.019704212011993</v>
       </c>
       <c r="G66" t="s">
         <v>26</v>
@@ -2194,22 +2186,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="n">
-        <v>39965</v>
+        <v>40330</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
       <c r="C67" t="n">
-        <v>93371</v>
+        <v>86795</v>
       </c>
       <c r="D67" t="n">
-        <v>344</v>
+        <v>257</v>
       </c>
       <c r="E67" t="n">
-        <v>7.030842914286564</v>
+        <v>6.50276456874875</v>
       </c>
       <c r="F67" t="n">
-        <v>0.025903224368536</v>
+        <v>0.01925468626267</v>
       </c>
       <c r="G67" t="s">
         <v>26</v>
@@ -2220,22 +2212,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="n">
-        <v>39995</v>
+        <v>40360</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="n">
-        <v>90387</v>
+        <v>81888</v>
       </c>
       <c r="D68" t="n">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="E68" t="n">
-        <v>6.806147502903682</v>
+        <v>6.135127426760731</v>
       </c>
       <c r="F68" t="n">
-        <v>0.024849023376793</v>
+        <v>0.018280713805803</v>
       </c>
       <c r="G68" t="s">
         <v>26</v>
@@ -2246,22 +2238,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="n">
-        <v>40026</v>
+        <v>40391</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>88336</v>
+        <v>80814</v>
       </c>
       <c r="D69" t="n">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="E69" t="n">
-        <v>6.65170705761337</v>
+        <v>6.054662317631908</v>
       </c>
       <c r="F69" t="n">
-        <v>0.022138220826598</v>
+        <v>0.01783118805648</v>
       </c>
       <c r="G69" t="s">
         <v>26</v>
@@ -2272,22 +2264,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="n">
-        <v>40057</v>
+        <v>40422</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="n">
-        <v>80041</v>
+        <v>74464</v>
       </c>
       <c r="D70" t="n">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="E70" t="n">
-        <v>6.027092970005793</v>
+        <v>5.5789142329317</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01957801841808</v>
+        <v>0.01775626709826</v>
       </c>
       <c r="G70" t="s">
         <v>26</v>
@@ -2298,22 +2290,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="n">
-        <v>40087</v>
+        <v>40452</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="n">
-        <v>79474</v>
+        <v>75243</v>
       </c>
       <c r="D71" t="n">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="E71" t="n">
-        <v>5.984397829840212</v>
+        <v>5.637277659385474</v>
       </c>
       <c r="F71" t="n">
-        <v>0.019050917922208</v>
+        <v>0.016782294641393</v>
       </c>
       <c r="G71" t="s">
         <v>26</v>
@@ -2324,22 +2316,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="n">
-        <v>40118</v>
+        <v>40483</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" t="n">
-        <v>71576</v>
+        <v>68600</v>
       </c>
       <c r="D72" t="n">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="E72" t="n">
-        <v>5.389677870355626</v>
+        <v>5.139577733926657</v>
       </c>
       <c r="F72" t="n">
-        <v>0.017846116788788</v>
+        <v>0.018955002429788</v>
       </c>
       <c r="G72" t="s">
         <v>26</v>
@@ -2350,22 +2342,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="n">
-        <v>40148</v>
+        <v>40513</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>67868</v>
+        <v>61571</v>
       </c>
       <c r="D73" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E73" t="n">
-        <v>5.110465207685476</v>
+        <v>4.612958318594726</v>
       </c>
       <c r="F73" t="n">
-        <v>0.015210614309431</v>
+        <v>0.015283875476983</v>
       </c>
       <c r="G73" t="s">
         <v>26</v>
@@ -2376,22 +2368,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="n">
-        <v>40179</v>
+        <v>40544</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="n">
-        <v>96017</v>
+        <v>90470</v>
       </c>
       <c r="D74" t="n">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="E74" t="n">
-        <v>7.193685645458249</v>
+        <v>6.74691070018692</v>
       </c>
       <c r="F74" t="n">
-        <v>0.019704212011993</v>
+        <v>0.016928802132668</v>
       </c>
       <c r="G74" t="s">
         <v>27</v>
@@ -2402,22 +2394,22 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="n">
-        <v>40210</v>
+        <v>40575</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>81927</v>
+        <v>86099</v>
       </c>
       <c r="D75" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E75" t="n">
-        <v>6.13804934413133</v>
+        <v>6.420938038857009</v>
       </c>
       <c r="F75" t="n">
-        <v>0.017231820390716</v>
+        <v>0.016854225911819</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
@@ -2428,22 +2420,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="n">
-        <v>40238</v>
+        <v>40603</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="n">
-        <v>96888</v>
+        <v>94187</v>
       </c>
       <c r="D76" t="n">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="E76" t="n">
-        <v>7.258941800068309</v>
+        <v>7.024110513081745</v>
       </c>
       <c r="F76" t="n">
-        <v>0.021127710218182</v>
+        <v>0.022522018696324</v>
       </c>
       <c r="G76" t="s">
         <v>27</v>
@@ -2454,22 +2446,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="n">
-        <v>40269</v>
+        <v>40634</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
       <c r="C77" t="n">
-        <v>94483</v>
+        <v>89076</v>
       </c>
       <c r="D77" t="n">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="E77" t="n">
-        <v>7.078756895547994</v>
+        <v>6.642951448323755</v>
       </c>
       <c r="F77" t="n">
-        <v>0.022850892257254</v>
+        <v>0.020135579629164</v>
       </c>
       <c r="G77" t="s">
         <v>27</v>
@@ -2480,22 +2472,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="n">
-        <v>40299</v>
+        <v>40664</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="C78" t="n">
-        <v>92660</v>
+        <v>87785</v>
       </c>
       <c r="D78" t="n">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="E78" t="n">
-        <v>6.942175988712013</v>
+        <v>6.546673547208011</v>
       </c>
       <c r="F78" t="n">
-        <v>0.019704212011993</v>
+        <v>0.021179646721047</v>
       </c>
       <c r="G78" t="s">
         <v>27</v>
@@ -2506,22 +2498,22 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="n">
-        <v>40330</v>
+        <v>40695</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="n">
-        <v>86795</v>
+        <v>81240</v>
       </c>
       <c r="D79" t="n">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="E79" t="n">
-        <v>6.50276456874875</v>
+        <v>6.058572181752906</v>
       </c>
       <c r="F79" t="n">
-        <v>0.01925468626267</v>
+        <v>0.016257616145029</v>
       </c>
       <c r="G79" t="s">
         <v>27</v>
@@ -2532,22 +2524,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="n">
-        <v>40360</v>
+        <v>40725</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="n">
-        <v>81888</v>
+        <v>77322</v>
       </c>
       <c r="D80" t="n">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="E80" t="n">
-        <v>6.135127426760731</v>
+        <v>5.766382548467481</v>
       </c>
       <c r="F80" t="n">
-        <v>0.018280713805803</v>
+        <v>0.019464393641525</v>
       </c>
       <c r="G80" t="s">
         <v>27</v>
@@ -2558,22 +2550,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="n">
-        <v>40391</v>
+        <v>40756</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>80814</v>
+        <v>76528</v>
       </c>
       <c r="D81" t="n">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="E81" t="n">
-        <v>6.054662317631908</v>
+        <v>5.707169029113569</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01783118805648</v>
+        <v>0.019315241199828</v>
       </c>
       <c r="G81" t="s">
         <v>27</v>
@@ -2584,22 +2576,22 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="n">
-        <v>40422</v>
+        <v>40787</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="n">
-        <v>74464</v>
+        <v>70922</v>
       </c>
       <c r="D82" t="n">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="E82" t="n">
-        <v>5.5789142329317</v>
+        <v>5.289094735035445</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01775626709826</v>
+        <v>0.015959311261634</v>
       </c>
       <c r="G82" t="s">
         <v>27</v>
@@ -2610,22 +2602,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="n">
-        <v>40452</v>
+        <v>40817</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83" t="n">
-        <v>75243</v>
+        <v>73723</v>
       </c>
       <c r="D83" t="n">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="E83" t="n">
-        <v>5.637277659385474</v>
+        <v>5.49798272963281</v>
       </c>
       <c r="F83" t="n">
-        <v>0.016782294641393</v>
+        <v>0.014766091728054</v>
       </c>
       <c r="G83" t="s">
         <v>27</v>
@@ -2636,22 +2628,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="n">
-        <v>40483</v>
+        <v>40848</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>68600</v>
+        <v>66918</v>
       </c>
       <c r="D84" t="n">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="E84" t="n">
-        <v>5.139577733926657</v>
+        <v>4.990491546757028</v>
       </c>
       <c r="F84" t="n">
-        <v>0.018955002429788</v>
+        <v>0.014542363065507</v>
       </c>
       <c r="G84" t="s">
         <v>27</v>
@@ -2662,22 +2654,22 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="n">
-        <v>40513</v>
+        <v>40878</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>61571</v>
+        <v>59005</v>
       </c>
       <c r="D85" t="n">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="E85" t="n">
-        <v>4.612958318594726</v>
+        <v>4.400369911180825</v>
       </c>
       <c r="F85" t="n">
-        <v>0.015283875476983</v>
+        <v>0.013871177077869</v>
       </c>
       <c r="G85" t="s">
         <v>27</v>
@@ -2688,22 +2680,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="n">
-        <v>40544</v>
+        <v>40909</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>90470</v>
+        <v>93994</v>
       </c>
       <c r="D86" t="n">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="E86" t="n">
-        <v>6.74691070018692</v>
+        <v>6.976212586117082</v>
       </c>
       <c r="F86" t="n">
-        <v>0.016928802132668</v>
+        <v>0.012691579805371</v>
       </c>
       <c r="G86" t="s">
         <v>28</v>
@@ -2714,22 +2706,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="n">
-        <v>40575</v>
+        <v>40940</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>86099</v>
+        <v>90726</v>
       </c>
       <c r="D87" t="n">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="E87" t="n">
-        <v>6.420938038857009</v>
+        <v>6.733662394281107</v>
       </c>
       <c r="F87" t="n">
-        <v>0.016854225911819</v>
+        <v>0.017961183116373</v>
       </c>
       <c r="G87" t="s">
         <v>28</v>
@@ -2740,22 +2732,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="n">
-        <v>40603</v>
+        <v>40969</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>94187</v>
+        <v>96158</v>
       </c>
       <c r="D88" t="n">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="E88" t="n">
-        <v>7.024110513081745</v>
+        <v>7.136824157455224</v>
       </c>
       <c r="F88" t="n">
-        <v>0.022522018696324</v>
+        <v>0.018258062176147</v>
       </c>
       <c r="G88" t="s">
         <v>28</v>
@@ -2766,22 +2758,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="n">
-        <v>40634</v>
+        <v>41000</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>89076</v>
+        <v>90259</v>
       </c>
       <c r="D89" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E89" t="n">
-        <v>6.642951448323755</v>
+        <v>6.699001764052404</v>
       </c>
       <c r="F89" t="n">
-        <v>0.020135579629164</v>
+        <v>0.019445578415246</v>
       </c>
       <c r="G89" t="s">
         <v>28</v>
@@ -2792,22 +2784,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="n">
-        <v>40664</v>
+        <v>41030</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="n">
-        <v>87785</v>
+        <v>88066</v>
       </c>
       <c r="D90" t="n">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="E90" t="n">
-        <v>6.546673547208011</v>
+        <v>6.536237819530895</v>
       </c>
       <c r="F90" t="n">
-        <v>0.021179646721047</v>
+        <v>0.018035402881316</v>
       </c>
       <c r="G90" t="s">
         <v>28</v>
@@ -2818,22 +2810,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="n">
-        <v>40695</v>
+        <v>41061</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" t="n">
-        <v>81240</v>
+        <v>79502</v>
       </c>
       <c r="D91" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E91" t="n">
-        <v>6.058572181752906</v>
+        <v>5.900619752553144</v>
       </c>
       <c r="F91" t="n">
-        <v>0.016257616145029</v>
+        <v>0.015511930873231</v>
       </c>
       <c r="G91" t="s">
         <v>28</v>
@@ -2844,22 +2836,22 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="n">
-        <v>40725</v>
+        <v>41091</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
       <c r="C92" t="n">
-        <v>77322</v>
+        <v>77353</v>
       </c>
       <c r="D92" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E92" t="n">
-        <v>5.766382548467481</v>
+        <v>5.741121477689157</v>
       </c>
       <c r="F92" t="n">
-        <v>0.019464393641525</v>
+        <v>0.019445578415246</v>
       </c>
       <c r="G92" t="s">
         <v>28</v>
@@ -2870,22 +2862,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="n">
-        <v>40756</v>
+        <v>41122</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>76528</v>
+        <v>75579</v>
       </c>
       <c r="D93" t="n">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="E93" t="n">
-        <v>5.707169029113569</v>
+        <v>5.609455614679053</v>
       </c>
       <c r="F93" t="n">
-        <v>0.019315241199828</v>
+        <v>0.015586150638175</v>
       </c>
       <c r="G93" t="s">
         <v>28</v>
@@ -2896,22 +2888,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="n">
-        <v>40787</v>
+        <v>41153</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="n">
-        <v>70922</v>
+        <v>68257</v>
       </c>
       <c r="D94" t="n">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="E94" t="n">
-        <v>5.289094735035445</v>
+        <v>5.066018495761364</v>
       </c>
       <c r="F94" t="n">
-        <v>0.015959311261634</v>
+        <v>0.017515864526711</v>
       </c>
       <c r="G94" t="s">
         <v>28</v>
@@ -2922,22 +2914,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="n">
-        <v>40817</v>
+        <v>41183</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95" t="n">
-        <v>73723</v>
+        <v>71685</v>
       </c>
       <c r="D95" t="n">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="E95" t="n">
-        <v>5.49798272963281</v>
+        <v>5.320443849988329</v>
       </c>
       <c r="F95" t="n">
-        <v>0.014766091728054</v>
+        <v>0.016031469227837</v>
       </c>
       <c r="G95" t="s">
         <v>28</v>
@@ -2948,22 +2940,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="n">
-        <v>40848</v>
+        <v>41214</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
       <c r="C96" t="n">
-        <v>66918</v>
+        <v>62847</v>
       </c>
       <c r="D96" t="n">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E96" t="n">
-        <v>4.990491546757028</v>
+        <v>4.664489567416008</v>
       </c>
       <c r="F96" t="n">
-        <v>0.014542363065507</v>
+        <v>0.012617360040427</v>
       </c>
       <c r="G96" t="s">
         <v>28</v>
@@ -2974,22 +2966,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="n">
-        <v>40878</v>
+        <v>41244</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" t="n">
-        <v>59005</v>
+        <v>57082</v>
       </c>
       <c r="D97" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E97" t="n">
-        <v>4.400369911180825</v>
+        <v>4.236612622515642</v>
       </c>
       <c r="F97" t="n">
-        <v>0.013871177077869</v>
+        <v>0.014472854164019</v>
       </c>
       <c r="G97" t="s">
         <v>28</v>
@@ -3000,22 +2992,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="n">
-        <v>40909</v>
+        <v>41275</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
       <c r="C98" t="n">
-        <v>93994</v>
+        <v>88539</v>
       </c>
       <c r="D98" t="n">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="E98" t="n">
-        <v>6.976212586117082</v>
+        <v>6.5388762518094</v>
       </c>
       <c r="F98" t="n">
-        <v>0.012691579805371</v>
+        <v>0.017207763433872</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -3026,22 +3018,22 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="n">
-        <v>40940</v>
+        <v>41306</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="n">
-        <v>90726</v>
+        <v>76557</v>
       </c>
       <c r="D99" t="n">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="E99" t="n">
-        <v>6.733662394281107</v>
+        <v>5.653968863549083</v>
       </c>
       <c r="F99" t="n">
-        <v>0.017961183116373</v>
+        <v>0.015952261380757</v>
       </c>
       <c r="G99" t="s">
         <v>29</v>
@@ -3052,22 +3044,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="n">
-        <v>40969</v>
+        <v>41334</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="n">
-        <v>96158</v>
+        <v>85255</v>
       </c>
       <c r="D100" t="n">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E100" t="n">
-        <v>7.136824157455224</v>
+        <v>6.296342796372338</v>
       </c>
       <c r="F100" t="n">
-        <v>0.018258062176147</v>
+        <v>0.017577028743612</v>
       </c>
       <c r="G100" t="s">
         <v>29</v>
@@ -3078,22 +3070,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="n">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>90259</v>
+        <v>84395</v>
       </c>
       <c r="D101" t="n">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="E101" t="n">
-        <v>6.699001764052404</v>
+        <v>6.232829163097102</v>
       </c>
       <c r="F101" t="n">
-        <v>0.019445578415246</v>
+        <v>0.015582996071017</v>
       </c>
       <c r="G101" t="s">
         <v>29</v>
@@ -3104,22 +3096,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="n">
-        <v>41030</v>
+        <v>41395</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>88066</v>
+        <v>81852</v>
       </c>
       <c r="D102" t="n">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E102" t="n">
-        <v>6.536237819530895</v>
+        <v>6.045020826563469</v>
       </c>
       <c r="F102" t="n">
-        <v>0.018035402881316</v>
+        <v>0.017503175681664</v>
       </c>
       <c r="G102" t="s">
         <v>29</v>
@@ -3130,22 +3122,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="n">
-        <v>41061</v>
+        <v>41426</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
       <c r="C103" t="n">
-        <v>79502</v>
+        <v>75769</v>
       </c>
       <c r="D103" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E103" t="n">
-        <v>5.900619752553144</v>
+        <v>5.595772650734099</v>
       </c>
       <c r="F103" t="n">
-        <v>0.015511930873231</v>
+        <v>0.015139877699329</v>
       </c>
       <c r="G103" t="s">
         <v>29</v>
@@ -3156,22 +3148,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="n">
-        <v>41091</v>
+        <v>41456</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="C104" t="n">
-        <v>77353</v>
+        <v>74805</v>
       </c>
       <c r="D104" t="n">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E104" t="n">
-        <v>5.741121477689157</v>
+        <v>5.524578299016277</v>
       </c>
       <c r="F104" t="n">
-        <v>0.019445578415246</v>
+        <v>0.018241706301143</v>
       </c>
       <c r="G104" t="s">
         <v>29</v>
@@ -3182,22 +3174,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="n">
-        <v>41122</v>
+        <v>41487</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>75579</v>
+        <v>73995</v>
       </c>
       <c r="D105" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E105" t="n">
-        <v>5.609455614679053</v>
+        <v>5.464757318838439</v>
       </c>
       <c r="F105" t="n">
-        <v>0.015586150638175</v>
+        <v>0.014992171575434</v>
       </c>
       <c r="G105" t="s">
         <v>29</v>
@@ -3208,22 +3200,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2" t="n">
-        <v>41153</v>
+        <v>41518</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106" t="n">
-        <v>68257</v>
+        <v>69323</v>
       </c>
       <c r="D106" t="n">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="E106" t="n">
-        <v>5.066018495761364</v>
+        <v>5.119715813417624</v>
       </c>
       <c r="F106" t="n">
-        <v>0.017515864526711</v>
+        <v>0.015213730761277</v>
       </c>
       <c r="G106" t="s">
         <v>29</v>
@@ -3234,22 +3226,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2" t="n">
-        <v>41183</v>
+        <v>41548</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" t="n">
-        <v>71685</v>
+        <v>70727</v>
       </c>
       <c r="D107" t="n">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E107" t="n">
-        <v>5.320443849988329</v>
+        <v>5.223405512392544</v>
       </c>
       <c r="F107" t="n">
-        <v>0.016031469227837</v>
+        <v>0.015213730761277</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -3260,22 +3252,22 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="n">
-        <v>41214</v>
+        <v>41579</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" t="n">
-        <v>62847</v>
+        <v>62818</v>
       </c>
       <c r="D108" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E108" t="n">
-        <v>4.664489567416008</v>
+        <v>4.63930164544622</v>
       </c>
       <c r="F108" t="n">
-        <v>0.012617360040427</v>
+        <v>0.013219698088683</v>
       </c>
       <c r="G108" t="s">
         <v>29</v>
@@ -3286,22 +3278,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="n">
-        <v>41244</v>
+        <v>41609</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="C109" t="n">
-        <v>57082</v>
+        <v>60399</v>
       </c>
       <c r="D109" t="n">
         <v>195</v>
       </c>
       <c r="E109" t="n">
-        <v>4.236612622515642</v>
+        <v>4.460651088594133</v>
       </c>
       <c r="F109" t="n">
-        <v>0.014472854164019</v>
+        <v>0.01440134707985</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -3312,22 +3304,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2" t="n">
-        <v>41275</v>
+        <v>41640</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="n">
-        <v>88539</v>
+        <v>89128</v>
       </c>
       <c r="D110" t="n">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="E110" t="n">
-        <v>6.5388762518094</v>
+        <v>6.576893827085427</v>
       </c>
       <c r="F110" t="n">
-        <v>0.017207763433872</v>
+        <v>0.013946604134718</v>
       </c>
       <c r="G110" t="s">
         <v>30</v>
@@ -3338,22 +3330,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2" t="n">
-        <v>41306</v>
+        <v>41671</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
       <c r="C111" t="n">
-        <v>76557</v>
+        <v>77153</v>
       </c>
       <c r="D111" t="n">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="E111" t="n">
-        <v>5.653968863549083</v>
+        <v>5.693239940771945</v>
       </c>
       <c r="F111" t="n">
-        <v>0.015952261380757</v>
+        <v>0.013134897015766</v>
       </c>
       <c r="G111" t="s">
         <v>30</v>
@@ -3364,22 +3356,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2" t="n">
-        <v>41334</v>
+        <v>41699</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
       <c r="C112" t="n">
-        <v>85255</v>
+        <v>84473</v>
       </c>
       <c r="D112" t="n">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="E112" t="n">
-        <v>6.296342796372338</v>
+        <v>6.233394132656261</v>
       </c>
       <c r="F112" t="n">
-        <v>0.017577028743612</v>
+        <v>0.015791393041427</v>
       </c>
       <c r="G112" t="s">
         <v>30</v>
@@ -3390,22 +3382,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="n">
-        <v>41365</v>
+        <v>41730</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
       <c r="C113" t="n">
-        <v>84395</v>
+        <v>81543</v>
       </c>
       <c r="D113" t="n">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="E113" t="n">
-        <v>6.232829163097102</v>
+        <v>6.017184872789998</v>
       </c>
       <c r="F113" t="n">
-        <v>0.015582996071017</v>
+        <v>0.01697205794172</v>
       </c>
       <c r="G113" t="s">
         <v>30</v>
@@ -3416,22 +3408,22 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="n">
-        <v>41395</v>
+        <v>41760</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
       </c>
       <c r="C114" t="n">
-        <v>81852</v>
+        <v>79530</v>
       </c>
       <c r="D114" t="n">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="E114" t="n">
-        <v>6.045020826563469</v>
+        <v>5.868642470021811</v>
       </c>
       <c r="F114" t="n">
-        <v>0.017503175681664</v>
+        <v>0.01564380992889</v>
       </c>
       <c r="G114" t="s">
         <v>30</v>
@@ -3442,22 +3434,22 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="n">
-        <v>41426</v>
+        <v>41791</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
       <c r="C115" t="n">
-        <v>75769</v>
+        <v>76366</v>
       </c>
       <c r="D115" t="n">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E115" t="n">
-        <v>5.595772650734099</v>
+        <v>5.635165985988754</v>
       </c>
       <c r="F115" t="n">
-        <v>0.015139877699329</v>
+        <v>0.01343006324084</v>
       </c>
       <c r="G115" t="s">
         <v>30</v>
@@ -3468,22 +3460,22 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="n">
-        <v>41456</v>
+        <v>41821</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
       <c r="C116" t="n">
-        <v>74805</v>
+        <v>74607</v>
       </c>
       <c r="D116" t="n">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="E116" t="n">
-        <v>5.524578299016277</v>
+        <v>5.505366638512728</v>
       </c>
       <c r="F116" t="n">
-        <v>0.018241706301143</v>
+        <v>0.013577646353376</v>
       </c>
       <c r="G116" t="s">
         <v>30</v>
@@ -3494,22 +3486,22 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="n">
-        <v>41487</v>
+        <v>41852</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
       <c r="C117" t="n">
-        <v>73995</v>
+        <v>71144</v>
       </c>
       <c r="D117" t="n">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E117" t="n">
-        <v>5.464757318838439</v>
+        <v>5.249826479155435</v>
       </c>
       <c r="F117" t="n">
-        <v>0.014992171575434</v>
+        <v>0.01387281257845</v>
       </c>
       <c r="G117" t="s">
         <v>30</v>
@@ -3520,22 +3512,22 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="n">
-        <v>41518</v>
+        <v>41883</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
       </c>
       <c r="C118" t="n">
-        <v>69323</v>
+        <v>67087</v>
       </c>
       <c r="D118" t="n">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="E118" t="n">
-        <v>5.119715813417624</v>
+        <v>4.950454135374742</v>
       </c>
       <c r="F118" t="n">
-        <v>0.015213730761277</v>
+        <v>0.013799021022181</v>
       </c>
       <c r="G118" t="s">
         <v>30</v>
@@ -3546,22 +3538,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2" t="n">
-        <v>41548</v>
+        <v>41913</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
       <c r="C119" t="n">
-        <v>70727</v>
+        <v>68456</v>
       </c>
       <c r="D119" t="n">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="E119" t="n">
-        <v>5.223405512392544</v>
+        <v>5.051474775906112</v>
       </c>
       <c r="F119" t="n">
-        <v>0.015213730761277</v>
+        <v>0.011585274334131</v>
       </c>
       <c r="G119" t="s">
         <v>30</v>
@@ -3572,22 +3564,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="n">
-        <v>41579</v>
+        <v>41944</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
       </c>
       <c r="C120" t="n">
-        <v>62818</v>
+        <v>59949</v>
       </c>
       <c r="D120" t="n">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="E120" t="n">
-        <v>4.63930164544622</v>
+        <v>4.423730006731266</v>
       </c>
       <c r="F120" t="n">
-        <v>0.013219698088683</v>
+        <v>0.012249398340546</v>
       </c>
       <c r="G120" t="s">
         <v>30</v>
@@ -3598,339 +3590,27 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="n">
-        <v>41609</v>
+        <v>41974</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
       </c>
       <c r="C121" t="n">
-        <v>60399</v>
+        <v>59945</v>
       </c>
       <c r="D121" t="n">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="E121" t="n">
-        <v>4.460651088594133</v>
+        <v>4.423434840506192</v>
       </c>
       <c r="F121" t="n">
-        <v>0.01440134707985</v>
+        <v>0.011290108109057</v>
       </c>
       <c r="G121" t="s">
         <v>30</v>
       </c>
       <c r="H121" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="2" t="n">
-        <v>41640</v>
-      </c>
-      <c r="B122" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" t="n">
-        <v>89128</v>
-      </c>
-      <c r="D122" t="n">
-        <v>189</v>
-      </c>
-      <c r="E122" t="n">
-        <v>6.576893827085427</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.013946604134718</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
-      <c r="H122" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="2" t="n">
-        <v>41671</v>
-      </c>
-      <c r="B123" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" t="n">
-        <v>77153</v>
-      </c>
-      <c r="D123" t="n">
-        <v>178</v>
-      </c>
-      <c r="E123" t="n">
-        <v>5.693239940771945</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.013134897015766</v>
-      </c>
-      <c r="G123" t="s">
-        <v>31</v>
-      </c>
-      <c r="H123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="2" t="n">
-        <v>41699</v>
-      </c>
-      <c r="B124" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" t="n">
-        <v>84473</v>
-      </c>
-      <c r="D124" t="n">
-        <v>214</v>
-      </c>
-      <c r="E124" t="n">
-        <v>6.233394132656261</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.015791393041427</v>
-      </c>
-      <c r="G124" t="s">
-        <v>31</v>
-      </c>
-      <c r="H124" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="2" t="n">
-        <v>41730</v>
-      </c>
-      <c r="B125" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" t="n">
-        <v>81543</v>
-      </c>
-      <c r="D125" t="n">
-        <v>230</v>
-      </c>
-      <c r="E125" t="n">
-        <v>6.017184872789998</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.01697205794172</v>
-      </c>
-      <c r="G125" t="s">
-        <v>31</v>
-      </c>
-      <c r="H125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="2" t="n">
-        <v>41760</v>
-      </c>
-      <c r="B126" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" t="n">
-        <v>79530</v>
-      </c>
-      <c r="D126" t="n">
-        <v>212</v>
-      </c>
-      <c r="E126" t="n">
-        <v>5.868642470021811</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.01564380992889</v>
-      </c>
-      <c r="G126" t="s">
-        <v>31</v>
-      </c>
-      <c r="H126" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="2" t="n">
-        <v>41791</v>
-      </c>
-      <c r="B127" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" t="n">
-        <v>76366</v>
-      </c>
-      <c r="D127" t="n">
-        <v>182</v>
-      </c>
-      <c r="E127" t="n">
-        <v>5.635165985988754</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.01343006324084</v>
-      </c>
-      <c r="G127" t="s">
-        <v>31</v>
-      </c>
-      <c r="H127" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="2" t="n">
-        <v>41821</v>
-      </c>
-      <c r="B128" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" t="n">
-        <v>74607</v>
-      </c>
-      <c r="D128" t="n">
-        <v>184</v>
-      </c>
-      <c r="E128" t="n">
-        <v>5.505366638512728</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.013577646353376</v>
-      </c>
-      <c r="G128" t="s">
-        <v>31</v>
-      </c>
-      <c r="H128" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="2" t="n">
-        <v>41852</v>
-      </c>
-      <c r="B129" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" t="n">
-        <v>71144</v>
-      </c>
-      <c r="D129" t="n">
-        <v>188</v>
-      </c>
-      <c r="E129" t="n">
-        <v>5.249826479155435</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.01387281257845</v>
-      </c>
-      <c r="G129" t="s">
-        <v>31</v>
-      </c>
-      <c r="H129" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="2" t="n">
-        <v>41883</v>
-      </c>
-      <c r="B130" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" t="n">
-        <v>67087</v>
-      </c>
-      <c r="D130" t="n">
-        <v>187</v>
-      </c>
-      <c r="E130" t="n">
-        <v>4.950454135374742</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.013799021022181</v>
-      </c>
-      <c r="G130" t="s">
-        <v>31</v>
-      </c>
-      <c r="H130" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="2" t="n">
-        <v>41913</v>
-      </c>
-      <c r="B131" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" t="n">
-        <v>68456</v>
-      </c>
-      <c r="D131" t="n">
-        <v>157</v>
-      </c>
-      <c r="E131" t="n">
-        <v>5.051474775906112</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.011585274334131</v>
-      </c>
-      <c r="G131" t="s">
-        <v>31</v>
-      </c>
-      <c r="H131" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="2" t="n">
-        <v>41944</v>
-      </c>
-      <c r="B132" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" t="n">
-        <v>59949</v>
-      </c>
-      <c r="D132" t="n">
-        <v>166</v>
-      </c>
-      <c r="E132" t="n">
-        <v>4.423730006731266</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.012249398340546</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
-      <c r="H132" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="2" t="n">
-        <v>41974</v>
-      </c>
-      <c r="B133" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>59945</v>
-      </c>
-      <c r="D133" t="n">
-        <v>153</v>
-      </c>
-      <c r="E133" t="n">
-        <v>4.423434840506192</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.011290108109057</v>
-      </c>
-      <c r="G133" t="s">
-        <v>31</v>
-      </c>
-      <c r="H133" t="s">
         <v>21</v>
       </c>
     </row>
